--- a/data-raw/counts_basketball/counts_basketball.xlsx
+++ b/data-raw/counts_basketball/counts_basketball.xlsx
@@ -2281,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="E101">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -3972,7 +3972,7 @@
         <v>189</v>
       </c>
       <c r="E190">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
@@ -4200,7 +4200,7 @@
         <v>201</v>
       </c>
       <c r="E202">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -5093,7 +5093,7 @@
         <v>248</v>
       </c>
       <c r="E249">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
@@ -5739,7 +5739,7 @@
         <v>282</v>
       </c>
       <c r="E283">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
@@ -5986,7 +5986,7 @@
         <v>295</v>
       </c>
       <c r="E296">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297">
@@ -6480,7 +6480,7 @@
         <v>321</v>
       </c>
       <c r="E322">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
